--- a/Data/EC/NIT-9006703368.xlsx
+++ b/Data/EC/NIT-9006703368.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7D530BF-27EE-4FA1-9F6F-FC0672611303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BB27F47-598A-4573-935C-8E80A687B513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3B560B04-DE23-4690-83BF-0CC427C21293}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E3E0CBF2-C244-4BD9-ADB4-AEF8C27880D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,247 +71,247 @@
     <t>YELKYS ESPITALETA QUIROZ</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
     <t>1610</t>
   </si>
   <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
     <t>1128062111</t>
   </si>
   <si>
     <t>MAIVER MARTINEZ DIAZ</t>
   </si>
   <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>20032756</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1007048476</t>
+  </si>
+  <si>
+    <t>YANUCELIS ISABEL ZARZA FRANCO</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1047459071</t>
+  </si>
+  <si>
+    <t>LINA MARIA BRU MONTALVO</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
     <t>2103</t>
   </si>
   <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>20032756</t>
-  </si>
-  <si>
-    <t>1007048476</t>
-  </si>
-  <si>
-    <t>YANUCELIS ISABEL ZARZA FRANCO</t>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
   </si>
   <si>
     <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1047459071</t>
-  </si>
-  <si>
-    <t>LINA MARIA BRU MONTALVO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -410,7 +410,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -423,9 +425,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -625,23 +625,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -669,10 +669,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -725,7 +725,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8F8639D-B34E-A801-3AAF-63DC2B9E2112}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{169998A9-D394-0820-CE64-4D70BB7662A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1076,7 +1076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8445788F-FE34-4561-89F8-62EA25DD789B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A4ACF2-0E61-4643-971C-7C7E8285D76F}">
   <dimension ref="B2:J147"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1343,10 +1343,10 @@
         <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F20" s="18">
-        <v>33384</v>
+        <v>38520</v>
       </c>
       <c r="G20" s="18">
         <v>963000</v>
@@ -1366,7 +1366,7 @@
         <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
         <v>38520</v>
@@ -1383,19 +1383,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>38520</v>
+        <v>38000</v>
       </c>
       <c r="G22" s="18">
-        <v>963000</v>
+        <v>950000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1412,7 +1412,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
         <v>38520</v>
@@ -1435,7 +1435,7 @@
         <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
         <v>38520</v>
@@ -1458,7 +1458,7 @@
         <v>16</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
         <v>38520</v>
@@ -1475,19 +1475,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>38520</v>
+        <v>29509</v>
       </c>
       <c r="G26" s="18">
-        <v>963000</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1498,19 +1498,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="18">
-        <v>38520</v>
+        <v>29509</v>
       </c>
       <c r="G27" s="18">
-        <v>963000</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1544,19 +1544,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29" s="18">
-        <v>38520</v>
+        <v>29509</v>
       </c>
       <c r="G29" s="18">
-        <v>963000</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1573,7 +1573,7 @@
         <v>16</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" s="18">
         <v>38520</v>
@@ -1590,19 +1590,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>38520</v>
+        <v>29509</v>
       </c>
       <c r="G31" s="18">
-        <v>963000</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1619,7 +1619,7 @@
         <v>16</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>38520</v>
@@ -1636,19 +1636,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F33" s="18">
-        <v>38520</v>
+        <v>29509</v>
       </c>
       <c r="G33" s="18">
-        <v>963000</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1665,7 +1665,7 @@
         <v>16</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F34" s="18">
         <v>38520</v>
@@ -1682,19 +1682,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F35" s="18">
-        <v>38520</v>
+        <v>29509</v>
       </c>
       <c r="G35" s="18">
-        <v>963000</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1705,19 +1705,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F36" s="18">
-        <v>38520</v>
+        <v>13771</v>
       </c>
       <c r="G36" s="18">
-        <v>963000</v>
+        <v>737717</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1734,7 +1734,7 @@
         <v>16</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F37" s="18">
         <v>38520</v>
@@ -1751,19 +1751,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F38" s="18">
-        <v>38520</v>
+        <v>29509</v>
       </c>
       <c r="G38" s="18">
-        <v>963000</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1780,7 +1780,7 @@
         <v>16</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F39" s="18">
         <v>38520</v>
@@ -1797,19 +1797,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F40" s="18">
-        <v>38520</v>
+        <v>29509</v>
       </c>
       <c r="G40" s="18">
-        <v>963000</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1826,7 +1826,7 @@
         <v>16</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F41" s="18">
         <v>38520</v>
@@ -1843,19 +1843,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F42" s="18">
-        <v>38520</v>
+        <v>29509</v>
       </c>
       <c r="G42" s="18">
-        <v>963000</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1872,7 +1872,7 @@
         <v>16</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F43" s="18">
         <v>38520</v>
@@ -1889,19 +1889,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F44" s="18">
-        <v>38520</v>
+        <v>29509</v>
       </c>
       <c r="G44" s="18">
-        <v>963000</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1918,7 +1918,7 @@
         <v>16</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F45" s="18">
         <v>38520</v>
@@ -1935,19 +1935,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F46" s="18">
-        <v>38520</v>
+        <v>29509</v>
       </c>
       <c r="G46" s="18">
-        <v>963000</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1964,7 +1964,7 @@
         <v>16</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F47" s="18">
         <v>38520</v>
@@ -1981,19 +1981,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F48" s="18">
-        <v>38520</v>
+        <v>29509</v>
       </c>
       <c r="G48" s="18">
-        <v>963000</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2010,7 +2010,7 @@
         <v>16</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F49" s="18">
         <v>38520</v>
@@ -2027,19 +2027,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F50" s="18">
-        <v>38520</v>
+        <v>29509</v>
       </c>
       <c r="G50" s="18">
-        <v>963000</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2056,7 +2056,7 @@
         <v>16</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F51" s="18">
         <v>38520</v>
@@ -2073,19 +2073,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F52" s="18">
-        <v>38520</v>
+        <v>29509</v>
       </c>
       <c r="G52" s="18">
-        <v>963000</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2102,7 +2102,7 @@
         <v>16</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F53" s="18">
         <v>38520</v>
@@ -2119,19 +2119,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F54" s="18">
-        <v>38520</v>
+        <v>29509</v>
       </c>
       <c r="G54" s="18">
-        <v>963000</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2148,7 +2148,7 @@
         <v>16</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F55" s="18">
         <v>38520</v>
@@ -2165,19 +2165,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F56" s="18">
-        <v>38520</v>
+        <v>29509</v>
       </c>
       <c r="G56" s="18">
-        <v>963000</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2194,7 +2194,7 @@
         <v>16</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F57" s="18">
         <v>38520</v>
@@ -2211,19 +2211,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F58" s="18">
-        <v>38520</v>
+        <v>29509</v>
       </c>
       <c r="G58" s="18">
-        <v>963000</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2240,7 +2240,7 @@
         <v>16</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F59" s="18">
         <v>38520</v>
@@ -2257,19 +2257,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F60" s="18">
-        <v>38520</v>
+        <v>29509</v>
       </c>
       <c r="G60" s="18">
-        <v>963000</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2286,7 +2286,7 @@
         <v>16</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F61" s="18">
         <v>38520</v>
@@ -2303,19 +2303,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F62" s="18">
-        <v>38520</v>
+        <v>29509</v>
       </c>
       <c r="G62" s="18">
-        <v>963000</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2332,7 +2332,7 @@
         <v>16</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F63" s="18">
         <v>38520</v>
@@ -2349,19 +2349,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F64" s="18">
-        <v>38520</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
-        <v>963000</v>
+        <v>781242</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2378,7 +2378,7 @@
         <v>16</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="F65" s="18">
         <v>38520</v>
@@ -2395,19 +2395,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F66" s="18">
-        <v>38520</v>
+        <v>31249</v>
       </c>
       <c r="G66" s="18">
-        <v>963000</v>
+        <v>781242</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2424,7 +2424,7 @@
         <v>16</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F67" s="18">
         <v>38520</v>
@@ -2441,19 +2441,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="F68" s="18">
-        <v>38520</v>
+        <v>31249</v>
       </c>
       <c r="G68" s="18">
-        <v>963000</v>
+        <v>781242</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2470,7 +2470,7 @@
         <v>16</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F69" s="18">
         <v>38520</v>
@@ -2487,19 +2487,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="F70" s="18">
-        <v>38520</v>
+        <v>31249</v>
       </c>
       <c r="G70" s="18">
-        <v>963000</v>
+        <v>781242</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2516,7 +2516,7 @@
         <v>16</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F71" s="18">
         <v>38520</v>
@@ -2533,19 +2533,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F72" s="18">
-        <v>38520</v>
+        <v>31249</v>
       </c>
       <c r="G72" s="18">
-        <v>963000</v>
+        <v>781242</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2556,19 +2556,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F73" s="18">
-        <v>38000</v>
+        <v>38520</v>
       </c>
       <c r="G73" s="18">
-        <v>950000</v>
+        <v>963000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2579,16 +2579,16 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="F74" s="18">
-        <v>22916</v>
+        <v>31249</v>
       </c>
       <c r="G74" s="18">
         <v>781242</v>
@@ -2602,19 +2602,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="F75" s="18">
-        <v>31249</v>
+        <v>38520</v>
       </c>
       <c r="G75" s="18">
-        <v>781242</v>
+        <v>963000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2625,13 +2625,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2648,19 +2648,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="F77" s="18">
-        <v>31249</v>
+        <v>38520</v>
       </c>
       <c r="G77" s="18">
-        <v>781242</v>
+        <v>963000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2671,13 +2671,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2694,19 +2694,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="F79" s="18">
-        <v>31249</v>
+        <v>38520</v>
       </c>
       <c r="G79" s="18">
-        <v>781242</v>
+        <v>963000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2717,13 +2717,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
@@ -2740,19 +2740,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="F81" s="18">
-        <v>31249</v>
+        <v>38520</v>
       </c>
       <c r="G81" s="18">
-        <v>781242</v>
+        <v>963000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2763,13 +2763,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
@@ -2786,19 +2786,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="F83" s="18">
-        <v>31249</v>
+        <v>38520</v>
       </c>
       <c r="G83" s="18">
-        <v>781242</v>
+        <v>963000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2809,13 +2809,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F84" s="18">
         <v>31249</v>
@@ -2832,19 +2832,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="F85" s="18">
-        <v>31249</v>
+        <v>38520</v>
       </c>
       <c r="G85" s="18">
-        <v>781242</v>
+        <v>963000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2855,13 +2855,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="F86" s="18">
         <v>31249</v>
@@ -2878,19 +2878,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="F87" s="18">
-        <v>31249</v>
+        <v>38520</v>
       </c>
       <c r="G87" s="18">
-        <v>781242</v>
+        <v>963000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2901,13 +2901,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="F88" s="18">
         <v>31249</v>
@@ -2924,19 +2924,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="F89" s="18">
-        <v>31249</v>
+        <v>38520</v>
       </c>
       <c r="G89" s="18">
-        <v>781242</v>
+        <v>963000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2947,13 +2947,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="F90" s="18">
         <v>31249</v>
@@ -2970,19 +2970,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="F91" s="18">
-        <v>31249</v>
+        <v>38520</v>
       </c>
       <c r="G91" s="18">
-        <v>781242</v>
+        <v>963000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2993,13 +2993,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F92" s="18">
         <v>31249</v>
@@ -3016,19 +3016,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="F93" s="18">
-        <v>31249</v>
+        <v>38520</v>
       </c>
       <c r="G93" s="18">
-        <v>781242</v>
+        <v>963000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3039,13 +3039,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F94" s="18">
         <v>31249</v>
@@ -3062,19 +3062,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F95" s="18">
-        <v>31249</v>
+        <v>38520</v>
       </c>
       <c r="G95" s="18">
-        <v>781242</v>
+        <v>963000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3085,13 +3085,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="F96" s="18">
         <v>31249</v>
@@ -3108,19 +3108,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="F97" s="18">
-        <v>31249</v>
+        <v>38520</v>
       </c>
       <c r="G97" s="18">
-        <v>781242</v>
+        <v>963000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3131,13 +3131,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="F98" s="18">
         <v>31249</v>
@@ -3154,19 +3154,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="F99" s="18">
-        <v>31249</v>
+        <v>38520</v>
       </c>
       <c r="G99" s="18">
-        <v>781242</v>
+        <v>963000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3177,13 +3177,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="F100" s="18">
         <v>31249</v>
@@ -3200,19 +3200,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="F101" s="18">
-        <v>31249</v>
+        <v>38520</v>
       </c>
       <c r="G101" s="18">
-        <v>781242</v>
+        <v>963000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3223,13 +3223,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="F102" s="18">
         <v>31249</v>
@@ -3246,19 +3246,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="F103" s="18">
-        <v>31249</v>
+        <v>38520</v>
       </c>
       <c r="G103" s="18">
-        <v>781242</v>
+        <v>963000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3269,13 +3269,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="F104" s="18">
         <v>31249</v>
@@ -3292,19 +3292,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="F105" s="18">
-        <v>31249</v>
+        <v>38520</v>
       </c>
       <c r="G105" s="18">
-        <v>781242</v>
+        <v>963000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3315,13 +3315,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="F106" s="18">
         <v>31249</v>
@@ -3338,19 +3338,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="F107" s="18">
-        <v>31249</v>
+        <v>38520</v>
       </c>
       <c r="G107" s="18">
-        <v>781242</v>
+        <v>963000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3361,13 +3361,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="F108" s="18">
         <v>31249</v>
@@ -3384,19 +3384,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="F109" s="18">
-        <v>31249</v>
+        <v>38520</v>
       </c>
       <c r="G109" s="18">
-        <v>781242</v>
+        <v>963000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3407,13 +3407,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="F110" s="18">
         <v>31249</v>
@@ -3430,19 +3430,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="F111" s="18">
-        <v>31249</v>
+        <v>38520</v>
       </c>
       <c r="G111" s="18">
-        <v>781242</v>
+        <v>963000</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3453,13 +3453,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="F112" s="18">
         <v>31249</v>
@@ -3476,19 +3476,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="F113" s="18">
-        <v>31249</v>
+        <v>38520</v>
       </c>
       <c r="G113" s="18">
-        <v>781242</v>
+        <v>963000</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3499,13 +3499,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="F114" s="18">
         <v>31249</v>
@@ -3522,19 +3522,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E115" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D115" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E115" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="F115" s="18">
-        <v>31249</v>
+        <v>38520</v>
       </c>
       <c r="G115" s="18">
-        <v>781242</v>
+        <v>963000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3545,13 +3545,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E116" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E116" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="F116" s="18">
         <v>31249</v>
@@ -3568,19 +3568,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D117" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E117" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E117" s="16" t="s">
-        <v>43</v>
-      </c>
       <c r="F117" s="18">
-        <v>31249</v>
+        <v>38520</v>
       </c>
       <c r="G117" s="18">
-        <v>781242</v>
+        <v>963000</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3591,13 +3591,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D118" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E118" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="E118" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="F118" s="18">
         <v>31249</v>
@@ -3614,19 +3614,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="F119" s="18">
-        <v>31249</v>
+        <v>38520</v>
       </c>
       <c r="G119" s="18">
-        <v>781242</v>
+        <v>963000</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3637,13 +3637,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="F120" s="18">
         <v>31249</v>
@@ -3660,19 +3660,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F121" s="18">
-        <v>31249</v>
+        <v>38520</v>
       </c>
       <c r="G121" s="18">
-        <v>781242</v>
+        <v>963000</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3683,16 +3683,16 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="F122" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G122" s="18">
         <v>781242</v>
@@ -3706,19 +3706,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F123" s="18">
-        <v>29509</v>
+        <v>33384</v>
       </c>
       <c r="G123" s="18">
-        <v>781242</v>
+        <v>963000</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3729,16 +3729,16 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="F124" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G124" s="18">
         <v>781242</v>
@@ -3752,16 +3752,16 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F125" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G125" s="18">
         <v>781242</v>
@@ -3775,16 +3775,16 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="F126" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G126" s="18">
         <v>781242</v>
@@ -3798,16 +3798,16 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F127" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G127" s="18">
         <v>781242</v>
@@ -3821,16 +3821,16 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="F128" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G128" s="18">
         <v>781242</v>
@@ -3844,16 +3844,16 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="F129" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G129" s="18">
         <v>781242</v>
@@ -3867,16 +3867,16 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="F130" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G130" s="18">
         <v>781242</v>
@@ -3890,16 +3890,16 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="F131" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G131" s="18">
         <v>781242</v>
@@ -3913,16 +3913,16 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="F132" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G132" s="18">
         <v>781242</v>
@@ -3936,16 +3936,16 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="F133" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G133" s="18">
         <v>781242</v>
@@ -3959,16 +3959,16 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="F134" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G134" s="18">
         <v>781242</v>
@@ -3982,16 +3982,16 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="F135" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G135" s="18">
         <v>781242</v>
@@ -4005,16 +4005,16 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="F136" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G136" s="18">
         <v>781242</v>
@@ -4028,16 +4028,16 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F137" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G137" s="18">
         <v>781242</v>
@@ -4051,16 +4051,16 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="F138" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G138" s="18">
         <v>781242</v>
@@ -4074,16 +4074,16 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E139" s="16" t="s">
         <v>89</v>
       </c>
       <c r="F139" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G139" s="18">
         <v>781242</v>
@@ -4097,16 +4097,16 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="F140" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G140" s="18">
         <v>781242</v>
@@ -4120,19 +4120,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="22" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="D141" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E141" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E141" s="22" t="s">
-        <v>61</v>
-      </c>
       <c r="F141" s="24">
-        <v>13771</v>
+        <v>22916</v>
       </c>
       <c r="G141" s="24">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H141" s="25"/>
       <c r="I141" s="25"/>
